--- a/medicine/Mort/Famille_bigoudène_en_deuil/Famille_bigoudène_en_deuil.xlsx
+++ b/medicine/Mort/Famille_bigoudène_en_deuil/Famille_bigoudène_en_deuil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Famille_bigoud%C3%A8ne_en_deuil</t>
+          <t>Famille_bigoudène_en_deuil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Famille bigoudène en deuil est une huile sur toile (H. 116,5 cm x L. 157,1 cm) du peintre français Lucien Simon exécutée en 1912. Donnée par Dominique Boyer, elle est conservée et exposée au Musée des Beaux-Arts de Quimper, dans le Finistère.
 Dans un style sombre et réaliste, caractéristique des peintres de La Bande Noire, on découvre une famille bigoudène, composée d’une mère et de ses quatre enfants posant en costume de deuil dans un intérieur relativement cossu. De toute évidence, cette famille porte le deuil d’un père, et époux, disparu. Des sources d’époque semblent indiquer que Lucien Simon connaissait le défunt.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Famille_bigoud%C3%A8ne_en_deuil</t>
+          <t>Famille_bigoudène_en_deuil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Analyse et interprétation de l'œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ici le contraste entre le noir des habits et la clarté des chairs attire l’attention sur les visages des personnages endeuillés. On remarque ainsi que la mère et sa fille, si elles portent une coiffe et des vêtements analogues, détournent modestement le regard vers la même direction. Elles partagent des traits semblables : on croirait voir le même personnage à deux âges différents.
 Formant également une paire symétrique, regardant également dans la même direction, les deux enfants les plus jeunes n’affichent qu’un air béat. Ils ne saisissent rien de la gravité de la situation, interloqués, sans doute, par l’étrange travail du peintre qui leur fait face.
